--- a/data_documentation/NJ_DOE_documentation.xlsx
+++ b/data_documentation/NJ_DOE_documentation.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Performance Reports\16-17 Source Data\Excel\Layout Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="25203"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17580" windowHeight="8100" tabRatio="781"/>
+    <workbookView xWindow="1560" yWindow="0" windowWidth="27240" windowHeight="16980" tabRatio="802" firstSheet="48" activeTab="53"/>
   </bookViews>
   <sheets>
     <sheet name="SchoolHeader" sheetId="36" r:id="rId1"/>
@@ -33,10 +28,10 @@
     <sheet name="StudentGrowthByPerformLevel" sheetId="57" r:id="rId19"/>
     <sheet name="StudentGrowthByGrade" sheetId="75" r:id="rId20"/>
     <sheet name="PSAT-SAT-ACTParticipation" sheetId="58" r:id="rId21"/>
-    <sheet name="PSAT-SAT-ACTPerformance" sheetId="61" r:id="rId22"/>
-    <sheet name="APIBCourseworkPartPerf" sheetId="60" r:id="rId23"/>
-    <sheet name="APIBCoursesOffered" sheetId="64" r:id="rId24"/>
-    <sheet name="CTE_SLEParticipation" sheetId="69" r:id="rId25"/>
+    <sheet name="CTE_SLEParticipation" sheetId="69" r:id="rId22"/>
+    <sheet name="PSAT-SAT-ACTPerformance" sheetId="61" r:id="rId23"/>
+    <sheet name="APIBCourseworkPartPerf" sheetId="60" r:id="rId24"/>
+    <sheet name="APIBCoursesOffered" sheetId="64" r:id="rId25"/>
     <sheet name="IndustryValuedCredentialsEarned" sheetId="76" r:id="rId26"/>
     <sheet name="MathCourseParticipation" sheetId="77" r:id="rId27"/>
     <sheet name="ScienceCourseParticipation" sheetId="78" r:id="rId28"/>
@@ -67,8 +62,11 @@
     <sheet name="AccountabilitySummary" sheetId="98" r:id="rId53"/>
     <sheet name="Narrative" sheetId="99" r:id="rId54"/>
   </sheets>
-  <calcPr calcId="171027" calcMode="manual"/>
+  <calcPr calcId="140001" calcMode="manual" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -1900,7 +1898,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1981,7 +1979,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1990,7 +1988,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1998,10 +1996,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2011,7 +2009,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2048,6 +2046,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2111,7 +2113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2163,7 +2165,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2357,7 +2359,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2367,58 +2369,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -2429,7 +2431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -2440,7 +2442,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
@@ -2451,7 +2453,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
@@ -2462,7 +2464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
@@ -2473,7 +2475,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
@@ -2484,7 +2486,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
@@ -2495,7 +2497,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
@@ -2512,6 +2514,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2519,58 +2526,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -2581,7 +2588,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -2592,7 +2599,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -2603,7 +2610,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -2614,7 +2621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2625,7 +2632,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>133</v>
       </c>
@@ -2636,7 +2643,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>89</v>
       </c>
@@ -2647,7 +2654,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>134</v>
       </c>
@@ -2658,7 +2665,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>135</v>
       </c>
@@ -2669,7 +2676,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2680,7 +2687,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -2691,7 +2698,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -2702,7 +2709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -2713,7 +2720,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -2724,7 +2731,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -2735,7 +2742,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2746,7 +2753,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -2757,7 +2764,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" s="8"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -2768,6 +2775,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2779,54 +2791,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -2837,7 +2849,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -2848,7 +2860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -2859,7 +2871,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -2870,7 +2882,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2881,7 +2893,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>133</v>
       </c>
@@ -2892,7 +2904,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>89</v>
       </c>
@@ -2903,7 +2915,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>134</v>
       </c>
@@ -2914,7 +2926,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>135</v>
       </c>
@@ -2925,7 +2937,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2936,7 +2948,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -2947,7 +2959,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -2958,7 +2970,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -2969,7 +2981,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -2980,7 +2992,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -2991,7 +3003,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3002,7 +3014,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -3013,7 +3025,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" s="8"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -3024,6 +3036,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3032,57 +3049,57 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:C1048576"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -3093,7 +3110,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -3104,7 +3121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -3115,7 +3132,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -3126,7 +3143,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>133</v>
       </c>
@@ -3137,7 +3154,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3148,7 +3165,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>142</v>
       </c>
@@ -3159,7 +3176,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -3170,6 +3187,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3178,57 +3200,57 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:C1048576"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -3239,7 +3261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -3250,7 +3272,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -3261,7 +3283,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -3272,7 +3294,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>133</v>
       </c>
@@ -3283,7 +3305,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3294,7 +3316,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>142</v>
       </c>
@@ -3305,7 +3327,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -3316,6 +3338,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3327,54 +3354,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="56.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="56.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -3385,7 +3412,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -3396,7 +3423,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -3407,7 +3434,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -3418,7 +3445,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -3429,7 +3456,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>147</v>
       </c>
@@ -3440,7 +3467,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>148</v>
       </c>
@@ -3451,12 +3478,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="8"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="8"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -3467,6 +3494,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3478,54 +3510,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="47.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="56.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="56.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -3536,7 +3568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -3547,7 +3579,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -3558,7 +3590,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -3569,7 +3601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>154</v>
       </c>
@@ -3580,7 +3612,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>155</v>
       </c>
@@ -3591,7 +3623,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>156</v>
       </c>
@@ -3602,7 +3634,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>157</v>
       </c>
@@ -3613,12 +3645,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="8"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="8"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -3629,6 +3661,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3637,18 +3674,18 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C1:C1048576"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="50" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="39.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.90625" style="11"/>
+    <col min="2" max="2" width="13.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14">
       <c r="A1" s="22" t="s">
         <v>30</v>
       </c>
@@ -3660,7 +3697,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14">
       <c r="A2" s="22" t="s">
         <v>76</v>
       </c>
@@ -3672,7 +3709,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -3682,7 +3719,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14">
       <c r="A4" s="13" t="s">
         <v>162</v>
       </c>
@@ -3694,7 +3731,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14">
       <c r="A5" s="13" t="s">
         <v>163</v>
       </c>
@@ -3706,13 +3743,13 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="14" thickBot="1">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="17" t="s">
         <v>33</v>
       </c>
@@ -3724,7 +3761,7 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="14">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -3736,7 +3773,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="14">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -3748,7 +3785,7 @@
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="14">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -3763,7 +3800,7 @@
       <c r="F10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="14">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -3775,7 +3812,7 @@
       </c>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="14">
       <c r="A12" s="1" t="s">
         <v>89</v>
       </c>
@@ -3786,7 +3823,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="14">
       <c r="A13" s="1" t="s">
         <v>164</v>
       </c>
@@ -3797,7 +3834,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="14">
       <c r="A14" s="1" t="s">
         <v>165</v>
       </c>
@@ -3815,7 +3852,12 @@
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3827,15 +3869,15 @@
       <selection activeCell="C4" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="50" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="39.26953125" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="8.90625" style="11"/>
+    <col min="2" max="2" width="13.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14">
       <c r="A1" s="22" t="s">
         <v>30</v>
       </c>
@@ -3847,7 +3889,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14">
       <c r="A2" s="22" t="s">
         <v>76</v>
       </c>
@@ -3859,7 +3901,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -3869,7 +3911,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14">
       <c r="A4" s="13" t="s">
         <v>59</v>
       </c>
@@ -3881,7 +3923,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14">
       <c r="A5" s="13" t="s">
         <v>169</v>
       </c>
@@ -3893,13 +3935,13 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="14" thickBot="1">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="17" t="s">
         <v>33</v>
       </c>
@@ -3911,7 +3953,7 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="14">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -3923,7 +3965,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="14">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -3935,7 +3977,7 @@
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="14">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -3950,7 +3992,7 @@
       <c r="F10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="14">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -3962,7 +4004,7 @@
       </c>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="14">
       <c r="A12" s="1" t="s">
         <v>164</v>
       </c>
@@ -3973,7 +4015,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="14">
       <c r="A13" s="1" t="s">
         <v>165</v>
       </c>
@@ -3984,7 +4026,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="14">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
     </row>
@@ -3995,6 +4037,11 @@
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4006,54 +4053,54 @@
       <selection activeCell="C16" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -4064,7 +4111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -4075,7 +4122,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -4086,7 +4133,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -4097,7 +4144,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -4108,7 +4155,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -4119,7 +4166,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -4130,7 +4177,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -4141,7 +4188,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>171</v>
       </c>
@@ -4152,7 +4199,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>117</v>
       </c>
@@ -4169,6 +4216,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4177,57 +4229,57 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:C1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="51.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -4238,7 +4290,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -4249,7 +4301,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -4260,7 +4312,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -4271,7 +4323,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>178</v>
       </c>
@@ -4282,7 +4334,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>179</v>
       </c>
@@ -4293,7 +4345,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>180</v>
       </c>
@@ -4304,7 +4356,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>181</v>
       </c>
@@ -4321,6 +4373,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4328,58 +4385,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="44.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -4390,7 +4447,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>79</v>
       </c>
@@ -4401,7 +4458,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
@@ -4428,7 +4485,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>81</v>
       </c>
@@ -4455,7 +4512,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
         <v>82</v>
       </c>
@@ -4482,7 +4539,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -4509,7 +4566,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>83</v>
       </c>
@@ -4542,6 +4599,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4553,54 +4615,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="51.26953125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -4611,7 +4673,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -4622,7 +4684,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -4633,7 +4695,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -4644,7 +4706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>178</v>
       </c>
@@ -4655,7 +4717,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -4666,7 +4728,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>188</v>
       </c>
@@ -4677,7 +4739,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="8"/>
@@ -4688,6 +4750,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4696,57 +4763,57 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:C1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -4757,7 +4824,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -4768,7 +4835,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -4779,7 +4846,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -4790,7 +4857,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>191</v>
       </c>
@@ -4801,7 +4868,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>192</v>
       </c>
@@ -4812,7 +4879,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>193</v>
       </c>
@@ -4823,7 +4890,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>194</v>
       </c>
@@ -4834,7 +4901,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>195</v>
       </c>
@@ -4845,7 +4912,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>196</v>
       </c>
@@ -4862,10 +4929,194 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -4873,54 +5124,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -4931,7 +5182,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -4942,7 +5193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -4953,7 +5204,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -4964,7 +5215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -4975,7 +5226,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -4986,7 +5237,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>198</v>
       </c>
@@ -4997,7 +5248,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>199</v>
       </c>
@@ -5008,7 +5259,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -5019,7 +5270,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>200</v>
       </c>
@@ -5030,7 +5281,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>201</v>
       </c>
@@ -5047,152 +5298,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="29.36328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="46.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5204,54 +5314,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -5262,7 +5372,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -5273,7 +5383,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -5284,7 +5394,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -5295,41 +5405,41 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>214</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C12" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
+      <c r="C13" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="8"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
     </row>
@@ -5339,65 +5449,70 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -5408,7 +5523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -5419,7 +5534,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -5430,7 +5545,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -5441,71 +5556,43 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>604</v>
+        <v>215</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>230</v>
-      </c>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5513,6 +5600,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5524,54 +5616,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -5582,7 +5674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -5593,7 +5685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -5604,7 +5696,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -5615,7 +5707,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>233</v>
       </c>
@@ -5626,7 +5718,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>234</v>
       </c>
@@ -5637,7 +5729,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>235</v>
       </c>
@@ -5648,17 +5740,17 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="6"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="8"/>
@@ -5669,6 +5761,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5680,54 +5777,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>239</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -5738,7 +5835,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -5749,7 +5846,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -5760,7 +5857,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -5771,7 +5868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -5782,7 +5879,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>241</v>
       </c>
@@ -5793,7 +5890,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>242</v>
       </c>
@@ -5804,7 +5901,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>243</v>
       </c>
@@ -5815,7 +5912,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>244</v>
       </c>
@@ -5826,7 +5923,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>245</v>
       </c>
@@ -5837,7 +5934,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>246</v>
       </c>
@@ -5848,7 +5945,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>247</v>
       </c>
@@ -5865,6 +5962,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5876,54 +5978,54 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -5934,7 +6036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -5945,7 +6047,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -5956,7 +6058,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -5967,7 +6069,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -5978,7 +6080,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>258</v>
       </c>
@@ -5989,7 +6091,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>259</v>
       </c>
@@ -6000,7 +6102,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>260</v>
       </c>
@@ -6011,7 +6113,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>261</v>
       </c>
@@ -6022,7 +6124,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>262</v>
       </c>
@@ -6033,7 +6135,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>605</v>
       </c>
@@ -6044,12 +6146,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="6"/>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
@@ -6060,6 +6162,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6071,54 +6178,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -6129,7 +6236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -6140,7 +6247,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -6151,7 +6258,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -6162,7 +6269,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -6173,7 +6280,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>270</v>
       </c>
@@ -6184,7 +6291,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>271</v>
       </c>
@@ -6195,7 +6302,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>272</v>
       </c>
@@ -6206,7 +6313,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>273</v>
       </c>
@@ -6217,7 +6324,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>274</v>
       </c>
@@ -6228,7 +6335,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>275</v>
       </c>
@@ -6239,7 +6346,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="6"/>
       <c r="C18" s="8"/>
@@ -6250,6 +6357,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6258,57 +6370,57 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:C1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -6319,7 +6431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -6330,7 +6442,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -6341,7 +6453,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -6352,7 +6464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -6363,7 +6475,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
@@ -6374,12 +6486,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -6390,6 +6502,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6401,54 +6518,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -6459,7 +6576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -6470,7 +6587,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -6481,7 +6598,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -6492,7 +6609,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -6503,7 +6620,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>284</v>
       </c>
@@ -6514,7 +6631,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>285</v>
       </c>
@@ -6525,7 +6642,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>286</v>
       </c>
@@ -6536,7 +6653,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>287</v>
       </c>
@@ -6547,7 +6664,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>288</v>
       </c>
@@ -6558,7 +6675,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>289</v>
       </c>
@@ -6569,7 +6686,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>290</v>
       </c>
@@ -6586,6 +6703,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6597,54 +6719,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>299</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -6655,7 +6777,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -6666,7 +6788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -6677,7 +6799,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -6688,7 +6810,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>300</v>
       </c>
@@ -6699,7 +6821,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -6710,7 +6832,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -6721,7 +6843,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>301</v>
       </c>
@@ -6732,22 +6854,22 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="6"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="6"/>
       <c r="C18" s="8"/>
@@ -6758,6 +6880,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6766,57 +6893,57 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C1:C1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>306</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>307</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -6827,7 +6954,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -6838,7 +6965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -6849,7 +6976,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -6860,7 +6987,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -6871,7 +6998,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>308</v>
       </c>
@@ -6882,7 +7009,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>309</v>
       </c>
@@ -6893,7 +7020,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>310</v>
       </c>
@@ -6904,7 +7031,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>311</v>
       </c>
@@ -6915,7 +7042,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>312</v>
       </c>
@@ -6926,7 +7053,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>313</v>
       </c>
@@ -6937,7 +7064,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>314</v>
       </c>
@@ -6948,7 +7075,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>315</v>
       </c>
@@ -6959,7 +7086,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>316</v>
       </c>
@@ -6970,7 +7097,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>317</v>
       </c>
@@ -6987,6 +7114,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6998,54 +7130,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>328</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -7056,7 +7188,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -7067,7 +7199,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -7078,7 +7210,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -7089,7 +7221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -7100,7 +7232,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>330</v>
       </c>
@@ -7111,7 +7243,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>331</v>
       </c>
@@ -7122,42 +7254,42 @@
         <v>334</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="6"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="6"/>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="6"/>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="6"/>
       <c r="C21" s="8"/>
@@ -7168,6 +7300,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7176,57 +7313,57 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:C1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>336</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -7237,7 +7374,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -7248,7 +7385,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -7259,7 +7396,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -7270,7 +7407,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>79</v>
       </c>
@@ -7281,7 +7418,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -7292,7 +7429,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -7303,7 +7440,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -7314,6 +7451,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7322,57 +7464,57 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="40.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>340</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>349</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -7383,7 +7525,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -7394,7 +7536,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -7405,7 +7547,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -7416,7 +7558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -7427,7 +7569,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>341</v>
       </c>
@@ -7438,7 +7580,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>342</v>
       </c>
@@ -7449,7 +7591,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>343</v>
       </c>
@@ -7466,6 +7608,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7477,54 +7624,54 @@
       <selection activeCell="C13" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="40.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="43.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>348</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>350</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -7535,7 +7682,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -7546,7 +7693,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -7557,7 +7704,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -7568,7 +7715,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -7579,7 +7726,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>351</v>
       </c>
@@ -7590,7 +7737,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>352</v>
       </c>
@@ -7601,7 +7748,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>353</v>
       </c>
@@ -7612,7 +7759,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>354</v>
       </c>
@@ -7623,7 +7770,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>355</v>
       </c>
@@ -7634,7 +7781,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>356</v>
       </c>
@@ -7645,7 +7792,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>357</v>
       </c>
@@ -7662,6 +7809,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7673,54 +7825,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>362</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -7731,7 +7883,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -7742,7 +7894,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -7753,7 +7905,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -7764,7 +7916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -7775,7 +7927,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>89</v>
       </c>
@@ -7786,7 +7938,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>363</v>
       </c>
@@ -7797,7 +7949,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>117</v>
       </c>
@@ -7814,6 +7966,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7825,54 +7982,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="66.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>367</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>368</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -7883,7 +8040,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -7894,7 +8051,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -7905,7 +8062,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -7916,7 +8073,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -7927,7 +8084,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>179</v>
       </c>
@@ -7938,17 +8095,17 @@
         <v>369</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="8"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="8"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="8"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -7959,6 +8116,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7970,54 +8132,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="66.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>371</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>372</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -8028,7 +8190,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -8039,7 +8201,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -8050,7 +8212,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -8061,7 +8223,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -8072,7 +8234,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -8083,7 +8245,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -8094,12 +8256,12 @@
         <v>374</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="8"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="8"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -8110,6 +8272,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8118,57 +8285,57 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C1:C1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -8179,7 +8346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -8197,7 +8364,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -8215,7 +8382,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -8233,7 +8400,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>95</v>
       </c>
@@ -8251,7 +8418,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
@@ -8275,6 +8442,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8283,57 +8455,57 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:C1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="66.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>375</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>376</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -8344,7 +8516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -8355,7 +8527,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -8366,7 +8538,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -8377,7 +8549,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>377</v>
       </c>
@@ -8388,7 +8560,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>378</v>
       </c>
@@ -8399,7 +8571,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>379</v>
       </c>
@@ -8410,7 +8582,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>380</v>
       </c>
@@ -8421,7 +8593,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>381</v>
       </c>
@@ -8438,6 +8610,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8449,54 +8626,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="66.453125" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>387</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>388</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -8507,7 +8684,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -8518,7 +8695,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -8529,7 +8706,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -8540,7 +8717,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>389</v>
       </c>
@@ -8551,7 +8728,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>390</v>
       </c>
@@ -8562,7 +8739,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>391</v>
       </c>
@@ -8573,7 +8750,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>392</v>
       </c>
@@ -8584,7 +8761,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>393</v>
       </c>
@@ -8595,7 +8772,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>394</v>
       </c>
@@ -8606,7 +8783,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>395</v>
       </c>
@@ -8623,6 +8800,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8631,57 +8813,57 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:C1048576"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="66.453125" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>403</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>404</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -8692,7 +8874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -8703,7 +8885,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -8714,7 +8896,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -8725,7 +8907,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>405</v>
       </c>
@@ -8736,7 +8918,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>406</v>
       </c>
@@ -8747,7 +8929,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -8758,22 +8940,22 @@
         <v>409</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -8784,6 +8966,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8795,54 +8982,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="66.453125" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>410</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>411</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -8853,7 +9040,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -8864,7 +9051,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -8875,7 +9062,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -8886,7 +9073,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>412</v>
       </c>
@@ -8897,32 +9084,32 @@
         <v>413</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -8933,6 +9120,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8944,54 +9136,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="66.453125" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>414</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>429</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -9002,7 +9194,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -9013,7 +9205,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -9024,7 +9216,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -9035,7 +9227,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>421</v>
       </c>
@@ -9048,7 +9240,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>415</v>
       </c>
@@ -9061,7 +9253,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>416</v>
       </c>
@@ -9072,7 +9264,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>417</v>
       </c>
@@ -9083,7 +9275,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>418</v>
       </c>
@@ -9094,7 +9286,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>419</v>
       </c>
@@ -9105,7 +9297,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>420</v>
       </c>
@@ -9122,6 +9314,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9133,54 +9330,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="66.453125" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>430</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>431</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -9191,7 +9388,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
@@ -9202,7 +9399,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>432</v>
       </c>
@@ -9213,7 +9410,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>433</v>
       </c>
@@ -9224,7 +9421,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>434</v>
       </c>
@@ -9237,34 +9434,34 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -9275,6 +9472,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9286,54 +9488,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="66.453125" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>438</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>439</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -9344,7 +9546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -9355,7 +9557,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -9366,7 +9568,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -9377,7 +9579,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>440</v>
       </c>
@@ -9390,7 +9592,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>441</v>
       </c>
@@ -9403,7 +9605,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>442</v>
       </c>
@@ -9414,7 +9616,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>443</v>
       </c>
@@ -9425,7 +9627,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>444</v>
       </c>
@@ -9436,7 +9638,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>445</v>
       </c>
@@ -9447,7 +9649,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>446</v>
       </c>
@@ -9458,7 +9660,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>447</v>
       </c>
@@ -9475,6 +9677,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9486,54 +9693,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="66.453125" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>458</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>459</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -9544,7 +9751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
@@ -9555,7 +9762,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>460</v>
       </c>
@@ -9566,7 +9773,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>461</v>
       </c>
@@ -9577,7 +9784,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>462</v>
       </c>
@@ -9590,7 +9797,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>463</v>
       </c>
@@ -9603,7 +9810,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>464</v>
       </c>
@@ -9614,7 +9821,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>465</v>
       </c>
@@ -9625,7 +9832,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>466</v>
       </c>
@@ -9636,7 +9843,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>467</v>
       </c>
@@ -9647,12 +9854,12 @@
         <v>475</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -9663,6 +9870,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9674,54 +9886,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="66.453125" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>476</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>477</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -9732,7 +9944,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -9743,7 +9955,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -9754,7 +9966,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -9765,7 +9977,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>478</v>
       </c>
@@ -9778,7 +9990,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>479</v>
       </c>
@@ -9791,7 +10003,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>480</v>
       </c>
@@ -9802,7 +10014,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>481</v>
       </c>
@@ -9813,7 +10025,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>482</v>
       </c>
@@ -9824,7 +10036,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>483</v>
       </c>
@@ -9835,7 +10047,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>484</v>
       </c>
@@ -9846,7 +10058,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>485</v>
       </c>
@@ -9863,6 +10075,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9874,54 +10091,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="66.453125" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>494</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>495</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -9932,7 +10149,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -9943,7 +10160,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -9954,7 +10171,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -9965,7 +10182,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>496</v>
       </c>
@@ -9978,7 +10195,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>497</v>
       </c>
@@ -9991,7 +10208,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>498</v>
       </c>
@@ -10002,27 +10219,27 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -10033,6 +10250,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10040,58 +10262,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C3" s="23"/>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C4" s="23"/>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -10102,70 +10324,70 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="24" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="8"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C13" s="24"/>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
+      <c r="C14" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10173,6 +10395,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10181,57 +10408,57 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:C1048576"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="66.453125" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>502</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>503</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -10242,7 +10469,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -10253,7 +10480,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -10264,7 +10491,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>496</v>
       </c>
@@ -10275,7 +10502,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>504</v>
       </c>
@@ -10288,7 +10515,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>505</v>
       </c>
@@ -10301,32 +10528,32 @@
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -10337,6 +10564,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10348,54 +10580,54 @@
       <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="66.453125" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>508</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>509</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -10406,7 +10638,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -10417,7 +10649,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -10428,7 +10660,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -10439,7 +10671,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>510</v>
       </c>
@@ -10452,39 +10684,39 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -10495,6 +10727,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10506,54 +10743,54 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="66.453125" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>512</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>513</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -10564,7 +10801,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -10575,7 +10812,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -10586,7 +10823,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -10597,7 +10834,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>514</v>
       </c>
@@ -10610,7 +10847,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>515</v>
       </c>
@@ -10623,7 +10860,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>516</v>
       </c>
@@ -10634,27 +10871,27 @@
         <v>519</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -10665,6 +10902,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10676,54 +10918,54 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="66.453125" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>520</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>521</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -10734,7 +10976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -10745,7 +10987,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -10756,7 +10998,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -10767,7 +11009,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -10780,7 +11022,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>522</v>
       </c>
@@ -10793,7 +11035,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>523</v>
       </c>
@@ -10804,7 +11046,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>524</v>
       </c>
@@ -10815,7 +11057,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>525</v>
       </c>
@@ -10826,7 +11068,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>526</v>
       </c>
@@ -10837,7 +11079,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>527</v>
       </c>
@@ -10848,7 +11090,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>528</v>
       </c>
@@ -10859,7 +11101,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>529</v>
       </c>
@@ -10870,7 +11112,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>530</v>
       </c>
@@ -10881,7 +11123,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>531</v>
       </c>
@@ -10898,6 +11140,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10905,58 +11152,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="66.453125" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>520</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>521</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -10967,7 +11214,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="20" t="s">
         <v>80</v>
       </c>
@@ -10978,7 +11225,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="20" t="s">
         <v>81</v>
       </c>
@@ -10989,7 +11236,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="20" t="s">
         <v>82</v>
       </c>
@@ -11000,7 +11247,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="20" t="s">
         <v>543</v>
       </c>
@@ -11013,7 +11260,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="20" t="s">
         <v>544</v>
       </c>
@@ -11026,7 +11273,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="20" t="s">
         <v>545</v>
       </c>
@@ -11037,7 +11284,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="20" t="s">
         <v>546</v>
       </c>
@@ -11048,7 +11295,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="20" t="s">
         <v>547</v>
       </c>
@@ -11059,7 +11306,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="20" t="s">
         <v>548</v>
       </c>
@@ -11070,7 +11317,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="20" t="s">
         <v>549</v>
       </c>
@@ -11081,7 +11328,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="20" t="s">
         <v>550</v>
       </c>
@@ -11092,7 +11339,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" s="20" t="s">
         <v>551</v>
       </c>
@@ -11103,7 +11350,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" s="20" t="s">
         <v>552</v>
       </c>
@@ -11114,7 +11361,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="20" t="s">
         <v>553</v>
       </c>
@@ -11125,7 +11372,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" s="20" t="s">
         <v>554</v>
       </c>
@@ -11136,7 +11383,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" s="20" t="s">
         <v>555</v>
       </c>
@@ -11147,7 +11394,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" s="20" t="s">
         <v>556</v>
       </c>
@@ -11158,7 +11405,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" s="20" t="s">
         <v>557</v>
       </c>
@@ -11169,7 +11416,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26" s="20" t="s">
         <v>558</v>
       </c>
@@ -11180,7 +11427,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3">
       <c r="A27" s="20" t="s">
         <v>559</v>
       </c>
@@ -11191,7 +11438,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3">
       <c r="A28" s="20" t="s">
         <v>560</v>
       </c>
@@ -11202,7 +11449,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3">
       <c r="A29" s="20" t="s">
         <v>561</v>
       </c>
@@ -11213,7 +11460,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3">
       <c r="A30" s="20" t="s">
         <v>562</v>
       </c>
@@ -11224,7 +11471,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
       <c r="A31" s="20" t="s">
         <v>563</v>
       </c>
@@ -11235,7 +11482,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3">
       <c r="A32" s="20" t="s">
         <v>564</v>
       </c>
@@ -11246,7 +11493,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3">
       <c r="A33" s="20" t="s">
         <v>565</v>
       </c>
@@ -11257,7 +11504,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3">
       <c r="A34" s="20" t="s">
         <v>566</v>
       </c>
@@ -11268,7 +11515,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
       <c r="A35" s="20" t="s">
         <v>567</v>
       </c>
@@ -11279,7 +11526,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36" s="20" t="s">
         <v>568</v>
       </c>
@@ -11290,7 +11537,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="A37" s="20" t="s">
         <v>569</v>
       </c>
@@ -11301,7 +11548,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38" s="20" t="s">
         <v>570</v>
       </c>
@@ -11312,7 +11559,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="A39" s="20" t="s">
         <v>571</v>
       </c>
@@ -11323,7 +11570,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3">
       <c r="A40" s="20" t="s">
         <v>572</v>
       </c>
@@ -11334,7 +11581,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
       <c r="A41" s="20" t="s">
         <v>573</v>
       </c>
@@ -11351,6 +11598,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11359,57 +11611,57 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:C1048576"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="46.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -11420,7 +11672,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -11431,7 +11683,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -11442,7 +11694,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -11453,7 +11705,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>101</v>
       </c>
@@ -11464,7 +11716,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>83</v>
       </c>
@@ -11475,12 +11727,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="8"/>
       <c r="B13" s="6"/>
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -11491,6 +11743,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11499,57 +11756,57 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:C1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -11560,7 +11817,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -11571,7 +11828,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -11582,7 +11839,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -11593,7 +11850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>105</v>
       </c>
@@ -11604,7 +11861,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>106</v>
       </c>
@@ -11615,12 +11872,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -11631,6 +11888,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11639,57 +11901,57 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:C1048576"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="42.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="40.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -11700,7 +11962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -11711,7 +11973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -11722,7 +11984,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -11733,7 +11995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -11744,7 +12006,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -11755,7 +12017,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
@@ -11766,7 +12028,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>111</v>
       </c>
@@ -11777,7 +12039,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>112</v>
       </c>
@@ -11788,7 +12050,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
@@ -11799,7 +12061,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>114</v>
       </c>
@@ -11810,7 +12072,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>115</v>
       </c>
@@ -11821,7 +12083,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
@@ -11832,7 +12094,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>117</v>
       </c>
@@ -11843,17 +12105,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="9"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" s="9"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" s="9"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -11864,6 +12126,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11872,57 +12139,57 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:C1048576"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="43.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="40.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -11933,7 +12200,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -11944,7 +12211,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -11955,7 +12222,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -11966,7 +12233,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -11977,7 +12244,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -11988,7 +12255,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
@@ -11999,7 +12266,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>111</v>
       </c>
@@ -12010,7 +12277,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>112</v>
       </c>
@@ -12021,7 +12288,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
@@ -12032,7 +12299,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>114</v>
       </c>
@@ -12043,7 +12310,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>115</v>
       </c>
@@ -12054,7 +12321,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
@@ -12065,7 +12332,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>117</v>
       </c>
@@ -12076,32 +12343,32 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="9"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" s="9"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" s="9"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" s="9"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" s="9"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26" s="9"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -12112,5 +12379,10 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>